--- a/Benchmark/Dati_PC_Umberpiero/Risultati_Intel i7 4510U.xlsx
+++ b/Benchmark/Dati_PC_Umberpiero/Risultati_Intel i7 4510U.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umber\Desktop\Impianti di Elaborazione 2022-2023\Homework\Homework 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communitystudentiunina-my.sharepoint.com/personal/giuseppe_riccio9_studenti_unina_it/Documents/Corsi/IMPIANTI DI ELABORAZIONE/Elaborato/Benchmark/Dati_PC_Umberpiero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CAAB6F-0C81-4C5A-9097-3556D2B5F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{D5CAAB6F-0C81-4C5A-9097-3556D2B5F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA643DA-8BFB-2048-BDCC-202B7C455581}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,13 +370,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>10000</v>
       </c>
@@ -387,7 +387,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3817.4</v>
       </c>
@@ -398,7 +398,7 @@
         <v>339603.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4436</v>
       </c>
@@ -409,7 +409,7 @@
         <v>335438.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3631.5</v>
       </c>
@@ -420,7 +420,7 @@
         <v>352800.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5037.5</v>
       </c>
@@ -431,7 +431,7 @@
         <v>331772.09999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3538</v>
       </c>
@@ -442,7 +442,7 @@
         <v>323283.59999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3640.2</v>
       </c>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3584</v>
       </c>
@@ -467,7 +467,7 @@
         <v>336535</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3641.3</v>
       </c>
@@ -478,7 +478,7 @@
         <v>341024.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3768.4</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4863.3999999999996</v>
       </c>
@@ -503,7 +503,7 @@
         <v>337538.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3644.7</v>
       </c>
@@ -514,7 +514,7 @@
         <v>330678.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3549.1</v>
       </c>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4013.3</v>
       </c>
@@ -539,7 +539,7 @@
         <v>379691.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3630.1</v>
       </c>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3594.9</v>
       </c>
@@ -564,7 +564,7 @@
         <v>329359.90000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3868.9</v>
       </c>
@@ -575,7 +575,7 @@
         <v>332236.3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3513.9</v>
       </c>
@@ -586,7 +586,7 @@
         <v>349489.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4207.2</v>
       </c>
@@ -597,7 +597,7 @@
         <v>336701</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3699.7</v>
       </c>
@@ -608,7 +608,7 @@
         <v>322642</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3544.7</v>
       </c>
@@ -619,7 +619,7 @@
         <v>361502.6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10383.1</v>
       </c>
@@ -633,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9771.9</v>
       </c>
@@ -644,7 +644,7 @@
         <v>403441.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6829.5</v>
       </c>
@@ -655,7 +655,7 @@
         <v>338733.7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3526.5</v>
       </c>
@@ -666,7 +666,7 @@
         <v>332474.59999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7019.5</v>
       </c>
@@ -677,7 +677,7 @@
         <v>553373.19999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3539.6</v>
       </c>
@@ -688,7 +688,7 @@
         <v>332573.7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3585.9</v>
       </c>
@@ -699,7 +699,7 @@
         <v>346888.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4981.7</v>
       </c>
@@ -710,7 +710,7 @@
         <v>530585.1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4040.4</v>
       </c>
@@ -721,7 +721,7 @@
         <v>453996.6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4472.2</v>
       </c>
